--- a/lib/tasks/diknascourses.xlsx
+++ b/lib/tasks/diknascourses.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>AGAMA</t>
   </si>
   <si>
-    <t>PKN</t>
-  </si>
-  <si>
     <t>BAHASA INDONESIA</t>
   </si>
   <si>
@@ -59,30 +56,15 @@
     <t>SOSIOLOGI</t>
   </si>
   <si>
-    <t>SASTRA</t>
-  </si>
-  <si>
-    <t>ANTROPOLOGI</t>
-  </si>
-  <si>
-    <t>BAHASA ASING</t>
-  </si>
-  <si>
     <t>SEJARAH</t>
   </si>
   <si>
     <t>SENI BUDAYA</t>
   </si>
   <si>
-    <t>PENJASORKES</t>
-  </si>
-  <si>
     <t>TIK</t>
   </si>
   <si>
-    <t>MUATAN LOKAL</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -90,6 +72,54 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>PENJASORKES BOYS</t>
+  </si>
+  <si>
+    <t>PENJASORKES GIRLS</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>BIOLOGI INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>DEBAT</t>
+  </si>
+  <si>
+    <t>FISIKA INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>LITERATUR</t>
+  </si>
+  <si>
+    <t>LITERATUR INDONESIA</t>
+  </si>
+  <si>
+    <t>MATEMATIKASS</t>
+  </si>
+  <si>
+    <t>SERVICE ELECTIVE</t>
+  </si>
+  <si>
+    <t>UN EKONOMI</t>
+  </si>
+  <si>
+    <t>UN MATEMATIKASS</t>
+  </si>
+  <si>
+    <t>UN MATEMATIKA</t>
+  </si>
+  <si>
+    <t>WALI KELAS</t>
+  </si>
+  <si>
+    <t>ENGLISH TUTORING</t>
+  </si>
+  <si>
+    <t>SPANYOL</t>
   </si>
 </sst>
 </file>
@@ -432,26 +462,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -464,105 +495,105 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -583,9 +614,59 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/tasks/diknascourses.xlsx
+++ b/lib/tasks/diknascourses.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LinuxShared\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView windowWidth="27225" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
   <si>
     <t>AGAMA</t>
   </si>
@@ -35,103 +34,61 @@
     <t>BAHASA INGGRIS</t>
   </si>
   <si>
+    <t>PENDIDIKAN KEWARGANEGARAAN</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI INFORMASI</t>
+  </si>
+  <si>
+    <t>FISIKA</t>
+  </si>
+  <si>
+    <t>SEJARAH</t>
+  </si>
+  <si>
+    <t>SOSIOLOGI</t>
+  </si>
+  <si>
+    <t>GEOGRAFI</t>
+  </si>
+  <si>
     <t>MATEMATIKA</t>
   </si>
   <si>
-    <t>FISIKA</t>
+    <t>BIOLOGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENDIDIKAN JASMANI </t>
+  </si>
+  <si>
+    <t>SENI BUDAYA</t>
   </si>
   <si>
     <t>KIMIA</t>
   </si>
   <si>
-    <t>BIOLOGI</t>
-  </si>
-  <si>
-    <t>GEOGRAFI</t>
-  </si>
-  <si>
     <t>EKONOMI</t>
   </si>
   <si>
-    <t>SOSIOLOGI</t>
-  </si>
-  <si>
-    <t>SEJARAH</t>
-  </si>
-  <si>
-    <t>SENI BUDAYA</t>
-  </si>
-  <si>
-    <t>TIK</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>PENJASORKES BOYS</t>
-  </si>
-  <si>
-    <t>PENJASORKES GIRLS</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>BIOLOGI INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>DEBAT</t>
-  </si>
-  <si>
-    <t>FISIKA INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>LITERATUR</t>
-  </si>
-  <si>
-    <t>LITERATUR INDONESIA</t>
-  </si>
-  <si>
-    <t>MATEMATIKASS</t>
-  </si>
-  <si>
-    <t>SERVICE ELECTIVE</t>
-  </si>
-  <si>
-    <t>UN EKONOMI</t>
-  </si>
-  <si>
-    <t>UN MATEMATIKASS</t>
-  </si>
-  <si>
-    <t>UN MATEMATIKA</t>
-  </si>
-  <si>
-    <t>WALI KELAS</t>
-  </si>
-  <si>
-    <t>ENGLISH TUTORING</t>
-  </si>
-  <si>
-    <t>SPANYOL</t>
+    <t>KETERAMPILAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,19 +96,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,42 +454,308 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -204,7 +764,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -242,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,223 +1012,169 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="19.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>